--- a/Documents/Test Panel ICD.xlsx
+++ b/Documents/Test Panel ICD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cal/Documents/GitHub/SIT-IBTFProject/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E008C6-F058-D747-8525-4483E3A714E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23C3275-E655-1046-B90C-95BBC76E8F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{981023D9-A8DA-C545-B7CD-D51244FABD8D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{981023D9-A8DA-C545-B7CD-D51244FABD8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Signal" sheetId="1" r:id="rId1"/>
@@ -163,9 +163,6 @@
     <t>Gauge (AWG)</t>
   </si>
   <si>
-    <t>Pixhawk 4</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -278,6 +275,9 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>Pixhawk</t>
   </si>
 </sst>
 </file>
@@ -1291,11 +1291,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F62C0B-5267-1A4C-BBB5-8890A2226003}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
+      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1319,13 +1319,13 @@
         <v>39</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="34"/>
       <c r="F1" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="3" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>15</v>
@@ -1383,7 +1383,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>33</v>
@@ -1441,7 +1441,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>33</v>
@@ -1499,7 +1499,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>33</v>
@@ -1557,7 +1557,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>33</v>
@@ -1615,7 +1615,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>33</v>
@@ -1673,7 +1673,7 @@
         <v>22</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="22" t="s">
         <v>33</v>
@@ -1731,7 +1731,7 @@
         <v>22</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>33</v>
@@ -1789,7 +1789,7 @@
         <v>22</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>33</v>
@@ -1847,7 +1847,7 @@
         <v>22</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>33</v>
@@ -1905,7 +1905,7 @@
         <v>22</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>33</v>
@@ -1963,7 +1963,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>33</v>
@@ -2021,7 +2021,7 @@
         <v>22</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>33</v>
@@ -2079,7 +2079,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>33</v>
@@ -2137,7 +2137,7 @@
         <v>22</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G29" s="22" t="s">
         <v>33</v>
@@ -2195,7 +2195,7 @@
         <v>22</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" s="22" t="s">
         <v>33</v>
@@ -2249,7 +2249,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>32</v>
@@ -2307,7 +2307,7 @@
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
       <c r="B36" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>32</v>
@@ -2365,7 +2365,7 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="22"/>
       <c r="B38" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>32</v>
@@ -2423,7 +2423,7 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
       <c r="B40" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>32</v>
@@ -2572,11 +2572,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FE8FF4-399D-1842-A142-EE9B54805FFD}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+    <sheetView zoomScale="108" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2598,13 +2598,13 @@
         <v>39</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="34"/>
       <c r="F1" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
@@ -2613,7 +2613,7 @@
         <v>40</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L1" s="28" t="s">
         <v>4</v>
@@ -2681,7 +2681,7 @@
         <v>8</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>35</v>
@@ -2707,7 +2707,7 @@
         <v>8</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>6</v>
@@ -2737,7 +2737,7 @@
         <v>8</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>35</v>
@@ -2763,7 +2763,7 @@
         <v>8</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>6</v>
@@ -2793,7 +2793,7 @@
         <v>8</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>35</v>
@@ -2819,7 +2819,7 @@
         <v>8</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>6</v>
@@ -2849,7 +2849,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>35</v>
@@ -2875,7 +2875,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>6</v>
@@ -2883,22 +2883,22 @@
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>48</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="23" t="s">
         <v>30</v>
@@ -2913,7 +2913,7 @@
         <v>8</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>35</v>
@@ -2923,13 +2923,13 @@
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="24"/>
@@ -2941,7 +2941,7 @@
         <v>8</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>6</v>
@@ -2951,16 +2951,16 @@
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>30</v>
@@ -2975,7 +2975,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>35</v>
@@ -2985,13 +2985,13 @@
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="24"/>
@@ -3003,7 +3003,7 @@
         <v>8</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>6</v>
@@ -3013,16 +3013,16 @@
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="23" t="s">
         <v>30</v>
@@ -3037,7 +3037,7 @@
         <v>8</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>35</v>
@@ -3047,13 +3047,13 @@
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="24"/>
@@ -3065,7 +3065,7 @@
         <v>8</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>6</v>
@@ -3075,16 +3075,16 @@
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>30</v>
@@ -3099,7 +3099,7 @@
         <v>8</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>35</v>
@@ -3109,13 +3109,13 @@
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="24"/>
@@ -3127,7 +3127,7 @@
         <v>8</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>6</v>
@@ -3136,19 +3136,19 @@
     <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="22"/>
       <c r="B20" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>30</v>
@@ -3160,10 +3160,10 @@
         <v>23</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>35</v>
@@ -3173,13 +3173,13 @@
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="24"/>
@@ -3188,10 +3188,10 @@
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>6</v>
@@ -3201,16 +3201,16 @@
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>30</v>
@@ -3222,10 +3222,10 @@
         <v>23</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>35</v>
@@ -3235,13 +3235,13 @@
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="24"/>
@@ -3250,10 +3250,10 @@
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>6</v>
@@ -3262,19 +3262,19 @@
     <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
       <c r="B24" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="23" t="s">
         <v>30</v>
@@ -3286,10 +3286,10 @@
         <v>23</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>35</v>
@@ -3299,13 +3299,13 @@
       <c r="A25" s="22"/>
       <c r="B25" s="47"/>
       <c r="C25" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="24"/>
@@ -3314,10 +3314,10 @@
       </c>
       <c r="I25" s="24"/>
       <c r="J25" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>6</v>
@@ -3327,16 +3327,16 @@
       <c r="A26" s="22"/>
       <c r="B26" s="47"/>
       <c r="C26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G26" s="23" t="s">
         <v>30</v>
@@ -3348,10 +3348,10 @@
         <v>23</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>35</v>
@@ -3361,13 +3361,13 @@
       <c r="A27" s="22"/>
       <c r="B27" s="47"/>
       <c r="C27" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="24"/>
@@ -3376,10 +3376,10 @@
       </c>
       <c r="I27" s="24"/>
       <c r="J27" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>6</v>
@@ -3388,19 +3388,19 @@
     <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
       <c r="B28" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>30</v>
@@ -3412,10 +3412,10 @@
         <v>23</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>35</v>
@@ -3425,13 +3425,13 @@
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="24"/>
@@ -3440,10 +3440,10 @@
       </c>
       <c r="I29" s="24"/>
       <c r="J29" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>6</v>
@@ -3453,16 +3453,16 @@
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G30" s="23" t="s">
         <v>30</v>
@@ -3474,10 +3474,10 @@
         <v>23</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>35</v>
@@ -3487,13 +3487,13 @@
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="24"/>
@@ -3502,10 +3502,10 @@
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>6</v>
@@ -3515,16 +3515,16 @@
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>30</v>
@@ -3536,10 +3536,10 @@
         <v>23</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>35</v>
@@ -3549,13 +3549,13 @@
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="24"/>
@@ -3564,10 +3564,10 @@
       </c>
       <c r="I33" s="24"/>
       <c r="J33" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>6</v>
@@ -3577,16 +3577,16 @@
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G34" s="23" t="s">
         <v>30</v>
@@ -3598,10 +3598,10 @@
         <v>23</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>35</v>
@@ -3611,13 +3611,13 @@
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="24"/>
@@ -3626,10 +3626,10 @@
       </c>
       <c r="I35" s="24"/>
       <c r="J35" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>6</v>
